--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1027463.638847874</v>
+        <v>1026166.55425071</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21481687.8327996</v>
+        <v>21481687.83279959</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -670,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>293.921208058318</v>
       </c>
       <c r="X2" t="n">
-        <v>317.5305373700298</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>84.09512982612996</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>75.62590992462751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>416.8602606516665</v>
       </c>
       <c r="F5" t="n">
-        <v>236.098069343235</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>7.014381630790933</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>346.2422678621158</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>403.8238880101725</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.3812637486246</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>23.81601920971095</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1381,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.0217925423652</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>210.1302899821286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>337.7898567730145</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6438573839239</v>
+        <v>90.90625219209487</v>
       </c>
       <c r="H13" t="n">
         <v>135.9114095300244</v>
       </c>
       <c r="I13" t="n">
-        <v>79.00700416583423</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S13" t="n">
-        <v>79.83121546632448</v>
+        <v>152.5688206581533</v>
       </c>
       <c r="T13" t="n">
         <v>242.1751312751644</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.0195315099965</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.7339930256583</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>279.5834739041102</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>89.35720672170828</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1785,7 +1785,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I16" t="n">
-        <v>6.26939897400523</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S16" t="n">
-        <v>152.5688206581533</v>
+        <v>79.83121546632402</v>
       </c>
       <c r="T16" t="n">
         <v>242.1751312751644</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948849</v>
       </c>
       <c r="G17" t="n">
         <v>396.7339930256583</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.0066694777895</v>
+        <v>68.00666947778936</v>
       </c>
       <c r="T17" t="n">
         <v>215.0217925423652</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>102.2023783060324</v>
       </c>
       <c r="G19" t="n">
         <v>163.6438573839239</v>
       </c>
       <c r="H19" t="n">
-        <v>63.17380433819555</v>
+        <v>135.9114095300244</v>
       </c>
       <c r="I19" t="n">
-        <v>79.00700416583423</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S19" t="n">
         <v>152.5688206581533</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.00666947778936</v>
+        <v>68.00666947779041</v>
       </c>
       <c r="T20" t="n">
         <v>215.0217925423652</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430768</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2247,10 +2247,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>95.32281851994117</v>
       </c>
       <c r="F22" t="n">
-        <v>102.2023783060325</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.6438573839239</v>
@@ -2259,7 +2259,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I22" t="n">
-        <v>79.00700416583423</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S22" t="n">
         <v>152.5688206581533</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>98.09848920977842</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,10 +2493,10 @@
         <v>163.6438573839239</v>
       </c>
       <c r="H25" t="n">
-        <v>135.9114095300244</v>
+        <v>63.1738043381955</v>
       </c>
       <c r="I25" t="n">
-        <v>79.00700416583423</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S25" t="n">
         <v>152.5688206581533</v>
@@ -2572,7 +2572,7 @@
         <v>396.7339930256583</v>
       </c>
       <c r="H26" t="n">
-        <v>279.58347390411</v>
+        <v>279.5834739041102</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>256.5780908531684</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6438573839239</v>
+        <v>163.6438573839207</v>
       </c>
       <c r="H28" t="n">
         <v>135.9114095300244</v>
       </c>
       <c r="I28" t="n">
-        <v>6.269398974005378</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>152.5688206581533</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>160.504394222107</v>
       </c>
     </row>
     <row r="29">
@@ -2970,7 +2970,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I31" t="n">
-        <v>6.269398974005378</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S31" t="n">
         <v>152.5688206581533</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>170.2002319280928</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3207,7 +3207,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I34" t="n">
-        <v>6.26939897400535</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S34" t="n">
         <v>152.5688206581533</v>
       </c>
       <c r="T34" t="n">
-        <v>242.1751312751644</v>
+        <v>169.4375260833356</v>
       </c>
       <c r="U34" t="n">
         <v>275.632770475398</v>
@@ -3322,7 +3322,7 @@
         <v>215.0217925423651</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5780908531677</v>
+        <v>256.5780908531686</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3444,7 +3444,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I37" t="n">
-        <v>6.269398974005378</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.5688206581533</v>
@@ -3483,7 +3483,7 @@
         <v>275.632770475398</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>219.4448732913449</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864831</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3678,10 +3678,10 @@
         <v>163.6438573839239</v>
       </c>
       <c r="H40" t="n">
-        <v>63.17380433819555</v>
+        <v>135.9114095300244</v>
       </c>
       <c r="I40" t="n">
-        <v>79.00700416583423</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S40" t="n">
         <v>152.5688206581533</v>
@@ -3720,7 +3720,7 @@
         <v>275.632770475398</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>211.348347856445</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.7339930256583</v>
+        <v>10.20104373801121</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0217925423652</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>230.8028451903647</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>98.09848920977819</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3918,7 +3918,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I43" t="n">
-        <v>79.00700416583423</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S43" t="n">
         <v>152.5688206581533</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.5043942221043</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>59.46797076884994</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>396.7339930256583</v>
       </c>
       <c r="H44" t="n">
-        <v>279.5834739041102</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>256.5780908531684</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>256.0096398473294</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>90.90625219209493</v>
+        <v>163.6438573839239</v>
       </c>
       <c r="H46" t="n">
         <v>135.9114095300244</v>
       </c>
       <c r="I46" t="n">
-        <v>79.00700416583423</v>
+        <v>79.00700416583425</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>8.096525434899778</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5688206581533</v>
+        <v>79.83121546632402</v>
       </c>
       <c r="T46" t="n">
         <v>242.1751312751644</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>945.0851728516207</v>
+        <v>954.6459714054656</v>
       </c>
       <c r="C2" t="n">
-        <v>516.503498588889</v>
+        <v>920.543902629293</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
         <v>34.36045797446834</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1400.293320930601</v>
       </c>
       <c r="X2" t="n">
-        <v>971.590058956067</v>
+        <v>981.1508575099119</v>
       </c>
       <c r="Y2" t="n">
-        <v>967.3443392961244</v>
+        <v>976.9051378499694</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>634.035002537054</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>461.4732910202789</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>295.5952982218016</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>295.5952982218016</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>118.8882441835578</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>118.8882441835578</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>118.8882441835578</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>341.3779633559367</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W4" t="n">
-        <v>1537.942061378414</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X4" t="n">
-        <v>1292.550306711827</v>
+        <v>634.035002537054</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>634.035002537054</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>763.0287521501522</v>
+        <v>545.2299034413993</v>
       </c>
       <c r="C5" t="n">
-        <v>334.4470778874205</v>
+        <v>511.1278346652267</v>
       </c>
       <c r="D5" t="n">
-        <v>302.5776971022691</v>
+        <v>479.2584538800753</v>
       </c>
       <c r="E5" t="n">
-        <v>272.8433563009683</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
         <v>34.36045797446834</v>
@@ -4567,28 +4567,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
@@ -4600,19 +4600,19 @@
         <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295003</v>
+        <v>571.7347895458456</v>
       </c>
       <c r="Y5" t="n">
-        <v>1189.32832263506</v>
+        <v>567.4890698859031</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>874.0494664914149</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1690.098196109921</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1690.098196109921</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>1690.098196109921</v>
       </c>
       <c r="U7" t="n">
-        <v>1516.524240083786</v>
+        <v>1690.098196109921</v>
       </c>
       <c r="V7" t="n">
-        <v>1229.568731954216</v>
+        <v>1403.142687980352</v>
       </c>
       <c r="W7" t="n">
-        <v>1229.568731954216</v>
+        <v>1131.116283566643</v>
       </c>
       <c r="X7" t="n">
-        <v>1229.568731954216</v>
+        <v>1131.116283566643</v>
       </c>
       <c r="Y7" t="n">
-        <v>1229.568731954216</v>
+        <v>903.6966128807517</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.0234284442651</v>
+        <v>763.0287521501519</v>
       </c>
       <c r="C8" t="n">
-        <v>408.9213596680925</v>
+        <v>728.9266833739794</v>
       </c>
       <c r="D8" t="n">
-        <v>377.0519788829411</v>
+        <v>697.057302588828</v>
       </c>
       <c r="E8" t="n">
         <v>347.3176380816403</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y8" t="n">
-        <v>465.2825948887688</v>
+        <v>785.2879185946557</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,34 +4871,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>936.2947751752459</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="C10" t="n">
-        <v>763.7330636584709</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="D10" t="n">
-        <v>597.8550708599936</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E10" t="n">
         <v>428.0970671107308</v>
@@ -4962,25 +4962,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>874.0494664914149</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1641.225609687538</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1355.533064580125</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1355.533064580125</v>
+        <v>1651.709023725475</v>
       </c>
       <c r="V10" t="n">
-        <v>1355.533064580125</v>
+        <v>1364.753515595906</v>
       </c>
       <c r="W10" t="n">
-        <v>1355.533064580125</v>
+        <v>1092.727111182197</v>
       </c>
       <c r="X10" t="n">
-        <v>1355.533064580125</v>
+        <v>847.3353565156096</v>
       </c>
       <c r="Y10" t="n">
-        <v>1128.113393894233</v>
+        <v>619.915685829718</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1367.066941986247</v>
+        <v>1356.791898760462</v>
       </c>
       <c r="C11" t="n">
-        <v>928.9244691696701</v>
+        <v>1356.791898760462</v>
       </c>
       <c r="D11" t="n">
-        <v>493.0146843441146</v>
+        <v>920.8821139349068</v>
       </c>
       <c r="E11" t="n">
-        <v>59.23993950240976</v>
+        <v>487.107369093202</v>
       </c>
       <c r="F11" t="n">
         <v>59.23993950240976</v>
@@ -5044,25 +5044,25 @@
         <v>573.4938212467763</v>
       </c>
       <c r="K11" t="n">
-        <v>655.3318086305957</v>
+        <v>965.6688700532133</v>
       </c>
       <c r="L11" t="n">
-        <v>756.8590685900866</v>
+        <v>1067.196130012704</v>
       </c>
       <c r="M11" t="n">
-        <v>869.8277075037121</v>
+        <v>1180.16476892633</v>
       </c>
       <c r="N11" t="n">
-        <v>1602.921958846033</v>
+        <v>1294.961358522653</v>
       </c>
       <c r="O11" t="n">
-        <v>2213.092660092422</v>
+        <v>1403.360522830432</v>
       </c>
       <c r="P11" t="n">
-        <v>2305.608838925809</v>
+        <v>2136.454774172752</v>
       </c>
       <c r="Q11" t="n">
-        <v>2921.583422257472</v>
+        <v>2752.429357504415</v>
       </c>
       <c r="R11" t="n">
         <v>2961.996975120488</v>
@@ -5071,22 +5071,22 @@
         <v>2961.996975120488</v>
       </c>
       <c r="T11" t="n">
-        <v>2961.996975120488</v>
+        <v>2744.803245279715</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.996975120488</v>
+        <v>2532.550427115949</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.996975120488</v>
+        <v>2169.933477049775</v>
       </c>
       <c r="W11" t="n">
-        <v>2620.795099592191</v>
+        <v>1765.078022460809</v>
       </c>
       <c r="X11" t="n">
-        <v>2201.652636171501</v>
+        <v>1765.078022460809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1793.366512471155</v>
+        <v>1356.791898760462</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>59.23993950240976</v>
       </c>
       <c r="I12" t="n">
-        <v>71.09167380325508</v>
+        <v>97.15534696371266</v>
       </c>
       <c r="J12" t="n">
-        <v>103.6137385898167</v>
+        <v>454.2357367164866</v>
       </c>
       <c r="K12" t="n">
-        <v>159.1991273483163</v>
+        <v>509.8211254749861</v>
       </c>
       <c r="L12" t="n">
-        <v>233.9405421971503</v>
+        <v>584.56254032382</v>
       </c>
       <c r="M12" t="n">
-        <v>967.034793539471</v>
+        <v>671.7822461276205</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.562945425563</v>
+        <v>1380.654973435206</v>
       </c>
       <c r="O12" t="n">
-        <v>1138.46371365715</v>
+        <v>1462.555741666793</v>
       </c>
       <c r="P12" t="n">
-        <v>1204.196300662272</v>
+        <v>1528.288328671914</v>
       </c>
       <c r="Q12" t="n">
-        <v>1689.401600408521</v>
+        <v>1572.228822314182</v>
       </c>
       <c r="R12" t="n">
         <v>1710.773976301867</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1126.530834008989</v>
+        <v>1053.058505532395</v>
       </c>
       <c r="C13" t="n">
-        <v>953.9691224922143</v>
+        <v>880.4967940156195</v>
       </c>
       <c r="D13" t="n">
-        <v>788.091129693737</v>
+        <v>714.6188012171422</v>
       </c>
       <c r="E13" t="n">
-        <v>618.3331259444743</v>
+        <v>544.8607974678794</v>
       </c>
       <c r="F13" t="n">
-        <v>441.6260719062305</v>
+        <v>368.1537434296356</v>
       </c>
       <c r="G13" t="n">
         <v>276.3292462659034</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0449942153736</v>
+        <v>139.0449942153737</v>
       </c>
       <c r="I13" t="n">
         <v>59.23993950240976</v>
       </c>
       <c r="J13" t="n">
-        <v>166.2229229686834</v>
+        <v>166.2229229686835</v>
       </c>
       <c r="K13" t="n">
-        <v>474.5102642948971</v>
+        <v>474.5102642948972</v>
       </c>
       <c r="L13" t="n">
-        <v>935.6255775176739</v>
+        <v>935.6255775176741</v>
       </c>
       <c r="M13" t="n">
         <v>1440.347206382297</v>
       </c>
       <c r="N13" t="n">
-        <v>1926.768118362181</v>
+        <v>1926.768118362182</v>
       </c>
       <c r="O13" t="n">
-        <v>2387.228222929743</v>
+        <v>2387.228222929744</v>
       </c>
       <c r="P13" t="n">
-        <v>2769.638740482992</v>
+        <v>2769.638740482993</v>
       </c>
       <c r="Q13" t="n">
         <v>2961.996975120488</v>
@@ -5226,25 +5226,25 @@
         <v>2953.818666600387</v>
       </c>
       <c r="S13" t="n">
-        <v>2873.181075220261</v>
+        <v>2799.708746743667</v>
       </c>
       <c r="T13" t="n">
-        <v>2628.559730497873</v>
+        <v>2555.087402021279</v>
       </c>
       <c r="U13" t="n">
-        <v>2350.142790623734</v>
+        <v>2276.670462147139</v>
       </c>
       <c r="V13" t="n">
-        <v>2063.187282494164</v>
+        <v>1989.714954017569</v>
       </c>
       <c r="W13" t="n">
-        <v>1791.160878080456</v>
+        <v>1717.688549603861</v>
       </c>
       <c r="X13" t="n">
-        <v>1545.769123413868</v>
+        <v>1472.296794937273</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.349452727977</v>
+        <v>1244.877124251382</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1729.712933410486</v>
+        <v>2044.30858323005</v>
       </c>
       <c r="C14" t="n">
-        <v>1291.570460593909</v>
+        <v>1606.166110413473</v>
       </c>
       <c r="D14" t="n">
-        <v>855.6606757683535</v>
+        <v>1170.256325587918</v>
       </c>
       <c r="E14" t="n">
-        <v>421.8859309266487</v>
+        <v>1170.256325587918</v>
       </c>
       <c r="F14" t="n">
-        <v>59.23993950240976</v>
+        <v>742.3888959971255</v>
       </c>
       <c r="G14" t="n">
-        <v>59.23993950240976</v>
+        <v>341.6474889005009</v>
       </c>
       <c r="H14" t="n">
         <v>59.23993950240976</v>
@@ -5278,28 +5278,28 @@
         <v>83.63463603559688</v>
       </c>
       <c r="J14" t="n">
-        <v>138.2391337938583</v>
+        <v>573.4938212467763</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0771211776778</v>
+        <v>965.6688700532133</v>
       </c>
       <c r="L14" t="n">
-        <v>953.1713725199986</v>
+        <v>1067.196130012704</v>
       </c>
       <c r="M14" t="n">
-        <v>1686.265623862319</v>
+        <v>1180.16476892633</v>
       </c>
       <c r="N14" t="n">
-        <v>2419.35987520464</v>
+        <v>1294.961358522653</v>
       </c>
       <c r="O14" t="n">
-        <v>2759.591446051017</v>
+        <v>1403.360522830432</v>
       </c>
       <c r="P14" t="n">
-        <v>2852.107624884404</v>
+        <v>2136.454774172752</v>
       </c>
       <c r="Q14" t="n">
-        <v>2921.583422257472</v>
+        <v>2752.429357504415</v>
       </c>
       <c r="R14" t="n">
         <v>2961.996975120488</v>
@@ -5317,13 +5317,13 @@
         <v>2961.996975120488</v>
       </c>
       <c r="W14" t="n">
-        <v>2557.141520531522</v>
+        <v>2871.737170351086</v>
       </c>
       <c r="X14" t="n">
-        <v>2137.999057110832</v>
+        <v>2452.594706930397</v>
       </c>
       <c r="Y14" t="n">
-        <v>1729.712933410486</v>
+        <v>2044.30858323005</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>59.23993950240976</v>
       </c>
       <c r="I15" t="n">
-        <v>71.09167380325508</v>
+        <v>97.15534696371266</v>
       </c>
       <c r="J15" t="n">
-        <v>103.6137385898167</v>
+        <v>454.2357367164866</v>
       </c>
       <c r="K15" t="n">
-        <v>836.7079899321375</v>
+        <v>588.4267622644034</v>
       </c>
       <c r="L15" t="n">
-        <v>911.4494047809716</v>
+        <v>663.1681771132372</v>
       </c>
       <c r="M15" t="n">
-        <v>998.6691105847719</v>
+        <v>750.3878829170377</v>
       </c>
       <c r="N15" t="n">
-        <v>1088.197262470864</v>
+        <v>839.9160348031302</v>
       </c>
       <c r="O15" t="n">
-        <v>1170.098030702451</v>
+        <v>921.8168030347168</v>
       </c>
       <c r="P15" t="n">
-        <v>1645.461106766254</v>
+        <v>987.5493900398382</v>
       </c>
       <c r="Q15" t="n">
-        <v>1689.401600408521</v>
+        <v>1572.228822314182</v>
       </c>
       <c r="R15" t="n">
         <v>1710.773976301867</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1053.058505532395</v>
+        <v>1126.53083400899</v>
       </c>
       <c r="C16" t="n">
-        <v>880.4967940156195</v>
+        <v>953.9691224922145</v>
       </c>
       <c r="D16" t="n">
-        <v>714.6188012171422</v>
+        <v>788.0911296937372</v>
       </c>
       <c r="E16" t="n">
-        <v>544.8607974678794</v>
+        <v>618.3331259444744</v>
       </c>
       <c r="F16" t="n">
-        <v>368.1537434296356</v>
+        <v>441.6260719062306</v>
       </c>
       <c r="G16" t="n">
-        <v>202.8569177893084</v>
+        <v>276.3292462659034</v>
       </c>
       <c r="H16" t="n">
-        <v>65.57266573877868</v>
+        <v>139.0449942153737</v>
       </c>
       <c r="I16" t="n">
         <v>59.23993950240976</v>
@@ -5439,10 +5439,10 @@
         <v>166.2229229686835</v>
       </c>
       <c r="K16" t="n">
-        <v>474.5102642948972</v>
+        <v>474.5102642948975</v>
       </c>
       <c r="L16" t="n">
-        <v>935.6255775176741</v>
+        <v>935.6255775176743</v>
       </c>
       <c r="M16" t="n">
         <v>1440.347206382297</v>
@@ -5451,10 +5451,10 @@
         <v>1926.768118362182</v>
       </c>
       <c r="O16" t="n">
-        <v>2387.228222929743</v>
+        <v>2387.228222929744</v>
       </c>
       <c r="P16" t="n">
-        <v>2769.638740482992</v>
+        <v>2769.638740482993</v>
       </c>
       <c r="Q16" t="n">
         <v>2961.996975120488</v>
@@ -5463,25 +5463,25 @@
         <v>2953.818666600387</v>
       </c>
       <c r="S16" t="n">
-        <v>2799.708746743667</v>
+        <v>2873.181075220262</v>
       </c>
       <c r="T16" t="n">
-        <v>2555.087402021279</v>
+        <v>2628.559730497874</v>
       </c>
       <c r="U16" t="n">
-        <v>2276.670462147139</v>
+        <v>2350.142790623734</v>
       </c>
       <c r="V16" t="n">
-        <v>1989.714954017569</v>
+        <v>2063.187282494165</v>
       </c>
       <c r="W16" t="n">
-        <v>1717.688549603861</v>
+        <v>1791.160878080456</v>
       </c>
       <c r="X16" t="n">
-        <v>1472.296794937273</v>
+        <v>1545.769123413869</v>
       </c>
       <c r="Y16" t="n">
-        <v>1244.877124251382</v>
+        <v>1318.349452727977</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2520.580145200873</v>
+        <v>2520.580145200874</v>
       </c>
       <c r="C17" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.527887558741</v>
+        <v>1646.527887558742</v>
       </c>
       <c r="E17" t="n">
-        <v>1212.753142717036</v>
+        <v>1212.753142717037</v>
       </c>
       <c r="F17" t="n">
         <v>784.8857131262441</v>
@@ -5512,55 +5512,55 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I17" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J17" t="n">
-        <v>615.9906383758949</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K17" t="n">
-        <v>697.8286257597144</v>
+        <v>697.8286257597146</v>
       </c>
       <c r="L17" t="n">
-        <v>1874.415851972065</v>
+        <v>799.3558857192055</v>
       </c>
       <c r="M17" t="n">
-        <v>2538.041625579951</v>
+        <v>1011.363173051052</v>
       </c>
       <c r="N17" t="n">
-        <v>3778.569198612723</v>
+        <v>2251.890746083823</v>
       </c>
       <c r="O17" t="n">
-        <v>3886.968362920501</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P17" t="n">
-        <v>4807.794416587284</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q17" t="n">
         <v>4877.270213960353</v>
       </c>
       <c r="R17" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S17" t="n">
-        <v>5018.144226043304</v>
+        <v>5018.144226043305</v>
       </c>
       <c r="T17" t="n">
-        <v>4800.950496202531</v>
+        <v>4800.950496202532</v>
       </c>
       <c r="U17" t="n">
-        <v>4541.780707461957</v>
+        <v>4541.780707461958</v>
       </c>
       <c r="V17" t="n">
-        <v>4179.163757395783</v>
+        <v>4179.163757395784</v>
       </c>
       <c r="W17" t="n">
-        <v>3774.308302806817</v>
+        <v>3774.308302806818</v>
       </c>
       <c r="X17" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y17" t="n">
-        <v>2946.879715685781</v>
+        <v>2946.879715685782</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.1652576471897</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C18" t="n">
-        <v>497.708796483832</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D18" t="n">
-        <v>402.6185076303853</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E18" t="n">
-        <v>308.498092957339</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F18" t="n">
-        <v>225.1142545735006</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G18" t="n">
-        <v>140.0803827929536</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H18" t="n">
         <v>101.7367566315285</v>
@@ -5636,10 +5636,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X18" t="n">
-        <v>851.9549379477321</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y18" t="n">
-        <v>725.4691587269529</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="19">
@@ -5661,10 +5661,10 @@
         <v>587.3576145969982</v>
       </c>
       <c r="F19" t="n">
-        <v>410.6505605587545</v>
+        <v>484.1228890353494</v>
       </c>
       <c r="G19" t="n">
-        <v>245.3537349184273</v>
+        <v>318.8260633950222</v>
       </c>
       <c r="H19" t="n">
         <v>181.5418113444924</v>
@@ -5749,34 +5749,34 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I20" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J20" t="n">
-        <v>615.9906383758949</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K20" t="n">
-        <v>697.8286257597144</v>
+        <v>1532.178917717893</v>
       </c>
       <c r="L20" t="n">
-        <v>1874.415851972065</v>
+        <v>1633.706177677383</v>
       </c>
       <c r="M20" t="n">
-        <v>2819.852714454753</v>
+        <v>1746.674816591009</v>
       </c>
       <c r="N20" t="n">
-        <v>4060.380287487524</v>
+        <v>2251.890746083823</v>
       </c>
       <c r="O20" t="n">
-        <v>4168.779451795303</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P20" t="n">
-        <v>4261.29563062869</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q20" t="n">
         <v>4877.270213960353</v>
       </c>
       <c r="R20" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S20" t="n">
         <v>5018.144226043304</v>
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.1652576471897</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C21" t="n">
-        <v>497.708796483832</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D21" t="n">
-        <v>402.6185076303853</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E21" t="n">
-        <v>308.498092957339</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F21" t="n">
-        <v>225.1142545735006</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G21" t="n">
-        <v>140.0803827929536</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H21" t="n">
         <v>101.7367566315285</v>
       </c>
       <c r="I21" t="n">
-        <v>113.5884909323738</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J21" t="n">
-        <v>470.6688806851478</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K21" t="n">
         <v>630.9235793935219</v>
@@ -5873,10 +5873,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X21" t="n">
-        <v>851.9549379477321</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y21" t="n">
-        <v>725.4691587269529</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="22">
@@ -5895,13 +5895,13 @@
         <v>757.115618346261</v>
       </c>
       <c r="E22" t="n">
-        <v>587.3576145969982</v>
+        <v>660.8299430735932</v>
       </c>
       <c r="F22" t="n">
-        <v>484.1228890353493</v>
+        <v>484.1228890353494</v>
       </c>
       <c r="G22" t="n">
-        <v>318.8260633950221</v>
+        <v>318.8260633950222</v>
       </c>
       <c r="H22" t="n">
         <v>181.5418113444924</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2520.580145200873</v>
+        <v>2520.580145200874</v>
       </c>
       <c r="C23" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.527887558741</v>
+        <v>1646.527887558742</v>
       </c>
       <c r="E23" t="n">
-        <v>1212.753142717036</v>
+        <v>1212.753142717037</v>
       </c>
       <c r="F23" t="n">
-        <v>784.8857131262439</v>
+        <v>784.8857131262448</v>
       </c>
       <c r="G23" t="n">
         <v>384.1443060296197</v>
@@ -5986,55 +5986,55 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I23" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J23" t="n">
-        <v>615.9906383758949</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K23" t="n">
-        <v>1532.178917717892</v>
+        <v>697.8286257597146</v>
       </c>
       <c r="L23" t="n">
-        <v>2708.766143930242</v>
+        <v>1874.415851972065</v>
       </c>
       <c r="M23" t="n">
-        <v>2821.734782843868</v>
+        <v>3117.273823057806</v>
       </c>
       <c r="N23" t="n">
-        <v>2936.531372440192</v>
+        <v>3232.07041265413</v>
       </c>
       <c r="O23" t="n">
-        <v>3509.623641714962</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P23" t="n">
-        <v>4430.449695381746</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q23" t="n">
-        <v>5046.424278713409</v>
+        <v>4877.270213960353</v>
       </c>
       <c r="R23" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S23" t="n">
-        <v>5018.144226043304</v>
+        <v>5018.144226043305</v>
       </c>
       <c r="T23" t="n">
-        <v>4800.950496202531</v>
+        <v>4800.950496202532</v>
       </c>
       <c r="U23" t="n">
-        <v>4541.780707461957</v>
+        <v>4541.780707461958</v>
       </c>
       <c r="V23" t="n">
-        <v>4179.163757395783</v>
+        <v>4179.163757395784</v>
       </c>
       <c r="W23" t="n">
-        <v>3774.308302806817</v>
+        <v>3774.308302806818</v>
       </c>
       <c r="X23" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y23" t="n">
-        <v>2946.879715685781</v>
+        <v>2946.879715685782</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.1652576471897</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C24" t="n">
-        <v>497.708796483832</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D24" t="n">
-        <v>402.6185076303853</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E24" t="n">
-        <v>308.498092957339</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F24" t="n">
-        <v>225.1142545735006</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G24" t="n">
-        <v>140.0803827929536</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H24" t="n">
         <v>101.7367566315285</v>
       </c>
       <c r="I24" t="n">
-        <v>113.5884909323738</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J24" t="n">
-        <v>146.1105557189354</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K24" t="n">
-        <v>201.695944477435</v>
+        <v>630.9235793935219</v>
       </c>
       <c r="L24" t="n">
-        <v>276.437359326269</v>
+        <v>705.664994242356</v>
       </c>
       <c r="M24" t="n">
-        <v>1333.623638678232</v>
+        <v>792.8847000461564</v>
       </c>
       <c r="N24" t="n">
-        <v>1423.151790564325</v>
+        <v>882.4128519322488</v>
       </c>
       <c r="O24" t="n">
-        <v>1505.052558795911</v>
+        <v>964.3136201638355</v>
       </c>
       <c r="P24" t="n">
-        <v>1570.785145801033</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.7256394433</v>
@@ -6110,10 +6110,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X24" t="n">
-        <v>851.9549379477321</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y24" t="n">
-        <v>725.4691587269529</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="25">
@@ -6126,19 +6126,19 @@
         <v>1095.555322661513</v>
       </c>
       <c r="C25" t="n">
-        <v>996.4659396213332</v>
+        <v>922.9936111447383</v>
       </c>
       <c r="D25" t="n">
-        <v>830.5879468228559</v>
+        <v>757.115618346261</v>
       </c>
       <c r="E25" t="n">
-        <v>660.8299430735931</v>
+        <v>587.3576145969982</v>
       </c>
       <c r="F25" t="n">
-        <v>484.1228890353493</v>
+        <v>410.6505605587545</v>
       </c>
       <c r="G25" t="n">
-        <v>318.8260633950221</v>
+        <v>245.3537349184273</v>
       </c>
       <c r="H25" t="n">
         <v>181.5418113444924</v>
@@ -6214,52 +6214,52 @@
         <v>1212.753142717036</v>
       </c>
       <c r="F26" t="n">
-        <v>784.8857131262439</v>
+        <v>784.8857131262441</v>
       </c>
       <c r="G26" t="n">
-        <v>384.1443060296194</v>
+        <v>384.1443060296197</v>
       </c>
       <c r="H26" t="n">
         <v>101.7367566315285</v>
       </c>
       <c r="I26" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J26" t="n">
-        <v>615.9906383758949</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K26" t="n">
-        <v>847.5382913615217</v>
+        <v>1532.178917717893</v>
       </c>
       <c r="L26" t="n">
-        <v>2024.125517573872</v>
+        <v>1633.706177677383</v>
       </c>
       <c r="M26" t="n">
-        <v>2137.094156487497</v>
+        <v>1746.674816591009</v>
       </c>
       <c r="N26" t="n">
-        <v>2251.890746083821</v>
+        <v>2251.890746083823</v>
       </c>
       <c r="O26" t="n">
-        <v>3340.469576961906</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P26" t="n">
-        <v>4261.29563062869</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q26" t="n">
         <v>4877.270213960353</v>
       </c>
       <c r="R26" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S26" t="n">
-        <v>5018.144226043304</v>
+        <v>5018.144226043305</v>
       </c>
       <c r="T26" t="n">
-        <v>4800.950496202531</v>
+        <v>4800.950496202532</v>
       </c>
       <c r="U26" t="n">
-        <v>4541.780707461957</v>
+        <v>4541.780707461958</v>
       </c>
       <c r="V26" t="n">
         <v>4179.163757395783</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1652576471897</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C27" t="n">
-        <v>497.708796483832</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D27" t="n">
-        <v>402.6185076303853</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E27" t="n">
-        <v>308.498092957339</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F27" t="n">
-        <v>225.1142545735006</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G27" t="n">
-        <v>140.0803827929536</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H27" t="n">
         <v>101.7367566315285</v>
@@ -6347,10 +6347,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X27" t="n">
-        <v>851.9549379477321</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y27" t="n">
-        <v>725.4691587269529</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1095.555322661513</v>
+        <v>1169.027651138105</v>
       </c>
       <c r="C28" t="n">
-        <v>922.9936111447383</v>
+        <v>996.46593962133</v>
       </c>
       <c r="D28" t="n">
-        <v>757.115618346261</v>
+        <v>830.5879468228527</v>
       </c>
       <c r="E28" t="n">
-        <v>587.3576145969982</v>
+        <v>660.8299430735899</v>
       </c>
       <c r="F28" t="n">
-        <v>410.6505605587545</v>
+        <v>484.1228890353461</v>
       </c>
       <c r="G28" t="n">
-        <v>245.3537349184273</v>
+        <v>318.8260633950222</v>
       </c>
       <c r="H28" t="n">
-        <v>108.0694828678976</v>
+        <v>181.5418113444924</v>
       </c>
       <c r="I28" t="n">
         <v>101.7367566315285</v>
@@ -6408,28 +6408,28 @@
         <v>3004.493792249607</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.315483729506</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.205563872786</v>
+        <v>2850.383872392887</v>
       </c>
       <c r="T28" t="n">
-        <v>2597.584219150398</v>
+        <v>2605.762527670498</v>
       </c>
       <c r="U28" t="n">
-        <v>2319.167279276258</v>
+        <v>2327.345587796359</v>
       </c>
       <c r="V28" t="n">
-        <v>2032.211771146688</v>
+        <v>2040.390079666789</v>
       </c>
       <c r="W28" t="n">
-        <v>1760.18536673298</v>
+        <v>1768.363675253081</v>
       </c>
       <c r="X28" t="n">
-        <v>1514.793612066392</v>
+        <v>1522.971920586493</v>
       </c>
       <c r="Y28" t="n">
-        <v>1287.373941380501</v>
+        <v>1360.846269857092</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2520.580145200873</v>
+        <v>2520.580145200874</v>
       </c>
       <c r="C29" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.527887558741</v>
+        <v>1646.527887558742</v>
       </c>
       <c r="E29" t="n">
-        <v>1212.753142717036</v>
+        <v>1212.753142717037</v>
       </c>
       <c r="F29" t="n">
-        <v>784.8857131262439</v>
+        <v>784.8857131262448</v>
       </c>
       <c r="G29" t="n">
         <v>384.1443060296197</v>
@@ -6460,55 +6460,55 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I29" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J29" t="n">
         <v>180.7359509229771</v>
       </c>
       <c r="K29" t="n">
-        <v>262.5739383067965</v>
+        <v>262.5739383067966</v>
       </c>
       <c r="L29" t="n">
-        <v>749.8347493223384</v>
+        <v>1439.161164519147</v>
       </c>
       <c r="M29" t="n">
-        <v>2008.827112637503</v>
+        <v>2555.325898596099</v>
       </c>
       <c r="N29" t="n">
-        <v>3249.354685670274</v>
+        <v>3795.85347162887</v>
       </c>
       <c r="O29" t="n">
-        <v>4337.933516548359</v>
+        <v>4884.432302506954</v>
       </c>
       <c r="P29" t="n">
-        <v>4430.449695381746</v>
+        <v>4976.948481340341</v>
       </c>
       <c r="Q29" t="n">
-        <v>5046.424278713409</v>
+        <v>5046.42427871341</v>
       </c>
       <c r="R29" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S29" t="n">
-        <v>5018.144226043304</v>
+        <v>5018.144226043305</v>
       </c>
       <c r="T29" t="n">
-        <v>4800.950496202531</v>
+        <v>4800.950496202532</v>
       </c>
       <c r="U29" t="n">
-        <v>4541.780707461957</v>
+        <v>4541.780707461958</v>
       </c>
       <c r="V29" t="n">
-        <v>4179.163757395783</v>
+        <v>4179.163757395784</v>
       </c>
       <c r="W29" t="n">
-        <v>3774.308302806817</v>
+        <v>3774.308302806818</v>
       </c>
       <c r="X29" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y29" t="n">
-        <v>2946.879715685781</v>
+        <v>2946.879715685782</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.1652576471897</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C30" t="n">
-        <v>497.708796483832</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D30" t="n">
-        <v>402.6185076303853</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E30" t="n">
-        <v>308.498092957339</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F30" t="n">
-        <v>225.1142545735006</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G30" t="n">
-        <v>140.0803827929536</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H30" t="n">
         <v>101.7367566315285</v>
       </c>
       <c r="I30" t="n">
-        <v>113.5884909323738</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J30" t="n">
-        <v>146.1105557189354</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K30" t="n">
-        <v>201.695944477435</v>
+        <v>630.9235793935219</v>
       </c>
       <c r="L30" t="n">
-        <v>276.437359326269</v>
+        <v>705.664994242356</v>
       </c>
       <c r="M30" t="n">
-        <v>363.6570651300694</v>
+        <v>792.8847000461564</v>
       </c>
       <c r="N30" t="n">
-        <v>453.1852170161619</v>
+        <v>882.4128519322488</v>
       </c>
       <c r="O30" t="n">
-        <v>535.0859852477486</v>
+        <v>964.3136201638355</v>
       </c>
       <c r="P30" t="n">
-        <v>1147.218985263297</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q30" t="n">
-        <v>1731.89841753764</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R30" t="n">
         <v>1753.270793430986</v>
@@ -6584,10 +6584,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X30" t="n">
-        <v>851.9549379477321</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y30" t="n">
-        <v>725.4691587269529</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1095.555322661513</v>
+        <v>1169.027651138108</v>
       </c>
       <c r="C31" t="n">
-        <v>922.9936111447383</v>
+        <v>996.4659396213332</v>
       </c>
       <c r="D31" t="n">
-        <v>757.115618346261</v>
+        <v>830.5879468228559</v>
       </c>
       <c r="E31" t="n">
-        <v>587.3576145969982</v>
+        <v>660.8299430735932</v>
       </c>
       <c r="F31" t="n">
-        <v>410.6505605587545</v>
+        <v>484.1228890353494</v>
       </c>
       <c r="G31" t="n">
-        <v>245.3537349184273</v>
+        <v>318.8260633950222</v>
       </c>
       <c r="H31" t="n">
-        <v>108.0694828678976</v>
+        <v>181.5418113444924</v>
       </c>
       <c r="I31" t="n">
         <v>101.7367566315285</v>
@@ -6663,10 +6663,10 @@
         <v>1760.18536673298</v>
       </c>
       <c r="X31" t="n">
-        <v>1514.793612066392</v>
+        <v>1588.265940542987</v>
       </c>
       <c r="Y31" t="n">
-        <v>1287.373941380501</v>
+        <v>1360.846269857095</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2520.580145200874</v>
+        <v>2520.580145200873</v>
       </c>
       <c r="C32" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.527887558742</v>
+        <v>1646.527887558741</v>
       </c>
       <c r="E32" t="n">
-        <v>1212.753142717037</v>
+        <v>1212.753142717036</v>
       </c>
       <c r="F32" t="n">
-        <v>784.8857131262448</v>
+        <v>784.8857131262441</v>
       </c>
       <c r="G32" t="n">
         <v>384.1443060296197</v>
@@ -6700,28 +6700,28 @@
         <v>126.1314531647157</v>
       </c>
       <c r="J32" t="n">
-        <v>180.7359509229771</v>
+        <v>549.1852289628831</v>
       </c>
       <c r="K32" t="n">
-        <v>1096.924230264975</v>
+        <v>631.0232163467025</v>
       </c>
       <c r="L32" t="n">
-        <v>2273.511456477325</v>
+        <v>732.5504763061934</v>
       </c>
       <c r="M32" t="n">
-        <v>3532.50381979249</v>
+        <v>1991.542839621359</v>
       </c>
       <c r="N32" t="n">
-        <v>3795.85347162887</v>
+        <v>3232.07041265413</v>
       </c>
       <c r="O32" t="n">
-        <v>4884.432302506954</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P32" t="n">
-        <v>4976.948481340341</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q32" t="n">
-        <v>5046.42427871341</v>
+        <v>4877.270213960353</v>
       </c>
       <c r="R32" t="n">
         <v>5086.837831576426</v>
@@ -6776,31 +6776,31 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I33" t="n">
-        <v>113.5884909323738</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J33" t="n">
-        <v>146.1105557189354</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K33" t="n">
-        <v>201.695944477435</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L33" t="n">
-        <v>276.4373593262691</v>
+        <v>627.0593574529389</v>
       </c>
       <c r="M33" t="n">
-        <v>363.6570651300695</v>
+        <v>714.2790632567393</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.324568658664</v>
+        <v>803.8072151428318</v>
       </c>
       <c r="O33" t="n">
-        <v>1622.225336890251</v>
+        <v>885.7079833744184</v>
       </c>
       <c r="P33" t="n">
-        <v>1687.957923895372</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q33" t="n">
-        <v>1731.89841753764</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R33" t="n">
         <v>1753.270793430986</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1095.555322661513</v>
+        <v>1169.027651138108</v>
       </c>
       <c r="C34" t="n">
-        <v>922.9936111447383</v>
+        <v>996.4659396213332</v>
       </c>
       <c r="D34" t="n">
-        <v>757.115618346261</v>
+        <v>830.5879468228559</v>
       </c>
       <c r="E34" t="n">
-        <v>587.3576145969982</v>
+        <v>660.8299430735932</v>
       </c>
       <c r="F34" t="n">
-        <v>410.6505605587545</v>
+        <v>484.1228890353494</v>
       </c>
       <c r="G34" t="n">
-        <v>245.3537349184273</v>
+        <v>318.8260633950222</v>
       </c>
       <c r="H34" t="n">
-        <v>108.0694828678976</v>
+        <v>181.5418113444924</v>
       </c>
       <c r="I34" t="n">
         <v>101.7367566315285</v>
@@ -6888,22 +6888,22 @@
         <v>2842.205563872786</v>
       </c>
       <c r="T34" t="n">
-        <v>2597.584219150398</v>
+        <v>2671.056547626992</v>
       </c>
       <c r="U34" t="n">
-        <v>2319.167279276258</v>
+        <v>2392.639607752852</v>
       </c>
       <c r="V34" t="n">
-        <v>2032.211771146688</v>
+        <v>2105.684099623283</v>
       </c>
       <c r="W34" t="n">
-        <v>1760.18536673298</v>
+        <v>1833.657695209575</v>
       </c>
       <c r="X34" t="n">
-        <v>1514.793612066392</v>
+        <v>1588.265940542987</v>
       </c>
       <c r="Y34" t="n">
-        <v>1287.373941380501</v>
+        <v>1360.846269857095</v>
       </c>
     </row>
     <row r="35">
@@ -6922,10 +6922,10 @@
         <v>1646.527887558741</v>
       </c>
       <c r="E35" t="n">
-        <v>1212.753142717036</v>
+        <v>1212.753142717037</v>
       </c>
       <c r="F35" t="n">
-        <v>784.8857131262441</v>
+        <v>784.8857131262442</v>
       </c>
       <c r="G35" t="n">
         <v>384.1443060296197</v>
@@ -6934,40 +6934,40 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I35" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J35" t="n">
-        <v>615.9906383758949</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K35" t="n">
-        <v>1532.178917717892</v>
+        <v>1532.178917717893</v>
       </c>
       <c r="L35" t="n">
-        <v>2708.766143930242</v>
+        <v>2024.125517573874</v>
       </c>
       <c r="M35" t="n">
-        <v>2821.734782843868</v>
+        <v>2137.0941564875</v>
       </c>
       <c r="N35" t="n">
-        <v>2936.531372440192</v>
+        <v>2251.890746083823</v>
       </c>
       <c r="O35" t="n">
-        <v>3340.469576961906</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P35" t="n">
-        <v>4261.29563062869</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q35" t="n">
         <v>4877.270213960353</v>
       </c>
       <c r="R35" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S35" t="n">
-        <v>5018.144226043304</v>
+        <v>5018.144226043305</v>
       </c>
       <c r="T35" t="n">
-        <v>4800.950496202531</v>
+        <v>4800.950496202532</v>
       </c>
       <c r="U35" t="n">
         <v>4541.780707461958</v>
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.1652576471897</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C36" t="n">
-        <v>497.708796483832</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D36" t="n">
-        <v>402.6185076303853</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E36" t="n">
-        <v>308.498092957339</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F36" t="n">
-        <v>225.1142545735006</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G36" t="n">
-        <v>140.0803827929536</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H36" t="n">
         <v>101.7367566315285</v>
       </c>
       <c r="I36" t="n">
-        <v>113.5884909323738</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J36" t="n">
-        <v>470.6688806851478</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K36" t="n">
-        <v>526.2542694436473</v>
+        <v>630.9235793935219</v>
       </c>
       <c r="L36" t="n">
-        <v>600.9956842924814</v>
+        <v>705.664994242356</v>
       </c>
       <c r="M36" t="n">
-        <v>688.2153900962818</v>
+        <v>792.8847000461564</v>
       </c>
       <c r="N36" t="n">
-        <v>777.7435419823743</v>
+        <v>882.4128519322488</v>
       </c>
       <c r="O36" t="n">
-        <v>859.6443102139609</v>
+        <v>964.3136201638355</v>
       </c>
       <c r="P36" t="n">
         <v>1030.046207168957</v>
@@ -7058,10 +7058,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X36" t="n">
-        <v>851.9549379477321</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.4691587269529</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1095.555322661513</v>
+        <v>1169.027651138108</v>
       </c>
       <c r="C37" t="n">
-        <v>922.9936111447383</v>
+        <v>996.4659396213332</v>
       </c>
       <c r="D37" t="n">
-        <v>757.115618346261</v>
+        <v>830.5879468228559</v>
       </c>
       <c r="E37" t="n">
-        <v>587.3576145969982</v>
+        <v>660.8299430735932</v>
       </c>
       <c r="F37" t="n">
-        <v>410.6505605587545</v>
+        <v>484.1228890353494</v>
       </c>
       <c r="G37" t="n">
-        <v>245.3537349184273</v>
+        <v>318.8260633950222</v>
       </c>
       <c r="H37" t="n">
-        <v>108.0694828678976</v>
+        <v>181.5418113444924</v>
       </c>
       <c r="I37" t="n">
         <v>101.7367566315285</v>
@@ -7119,28 +7119,28 @@
         <v>3004.493792249607</v>
       </c>
       <c r="R37" t="n">
-        <v>2996.315483729506</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="S37" t="n">
-        <v>2842.205563872786</v>
+        <v>2850.383872392887</v>
       </c>
       <c r="T37" t="n">
-        <v>2597.584219150398</v>
+        <v>2605.762527670498</v>
       </c>
       <c r="U37" t="n">
-        <v>2319.167279276258</v>
+        <v>2327.345587796359</v>
       </c>
       <c r="V37" t="n">
-        <v>2032.211771146688</v>
+        <v>2105.684099623283</v>
       </c>
       <c r="W37" t="n">
-        <v>1760.18536673298</v>
+        <v>1833.657695209575</v>
       </c>
       <c r="X37" t="n">
-        <v>1514.793612066392</v>
+        <v>1588.265940542987</v>
       </c>
       <c r="Y37" t="n">
-        <v>1287.373941380501</v>
+        <v>1360.846269857095</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1212.753142717036</v>
       </c>
       <c r="F38" t="n">
-        <v>784.8857131262439</v>
+        <v>784.8857131262441</v>
       </c>
       <c r="G38" t="n">
         <v>384.1443060296197</v>
@@ -7171,49 +7171,49 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I38" t="n">
-        <v>126.1314531647156</v>
+        <v>126.1314531647157</v>
       </c>
       <c r="J38" t="n">
-        <v>615.9906383758949</v>
+        <v>615.9906383758951</v>
       </c>
       <c r="K38" t="n">
-        <v>1394.037077320116</v>
+        <v>1532.178917717893</v>
       </c>
       <c r="L38" t="n">
-        <v>2570.624303532466</v>
+        <v>1633.706177677383</v>
       </c>
       <c r="M38" t="n">
-        <v>2683.592942446092</v>
+        <v>1746.674816591009</v>
       </c>
       <c r="N38" t="n">
-        <v>2798.389532042416</v>
+        <v>2251.890746083823</v>
       </c>
       <c r="O38" t="n">
-        <v>3886.968362920501</v>
+        <v>3340.469576961907</v>
       </c>
       <c r="P38" t="n">
-        <v>4807.794416587284</v>
+        <v>4261.295630628691</v>
       </c>
       <c r="Q38" t="n">
         <v>4877.270213960353</v>
       </c>
       <c r="R38" t="n">
-        <v>5086.837831576425</v>
+        <v>5086.837831576426</v>
       </c>
       <c r="S38" t="n">
-        <v>5018.144226043304</v>
+        <v>5018.144226043305</v>
       </c>
       <c r="T38" t="n">
-        <v>4800.950496202531</v>
+        <v>4800.950496202532</v>
       </c>
       <c r="U38" t="n">
-        <v>4541.780707461957</v>
+        <v>4541.780707461958</v>
       </c>
       <c r="V38" t="n">
-        <v>4179.163757395783</v>
+        <v>4179.163757395784</v>
       </c>
       <c r="W38" t="n">
-        <v>3774.308302806817</v>
+        <v>3774.308302806818</v>
       </c>
       <c r="X38" t="n">
         <v>3355.165839386128</v>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.1652576471897</v>
+        <v>604.1652576471898</v>
       </c>
       <c r="C39" t="n">
-        <v>497.708796483832</v>
+        <v>497.7087964838321</v>
       </c>
       <c r="D39" t="n">
-        <v>402.6185076303853</v>
+        <v>402.6185076303854</v>
       </c>
       <c r="E39" t="n">
-        <v>308.498092957339</v>
+        <v>308.4980929573391</v>
       </c>
       <c r="F39" t="n">
-        <v>225.1142545735006</v>
+        <v>225.1142545735007</v>
       </c>
       <c r="G39" t="n">
-        <v>140.0803827929536</v>
+        <v>140.0803827929537</v>
       </c>
       <c r="H39" t="n">
         <v>101.7367566315285</v>
@@ -7253,25 +7253,25 @@
         <v>139.6521640928314</v>
       </c>
       <c r="J39" t="n">
-        <v>172.174228879393</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K39" t="n">
-        <v>227.7596176378926</v>
+        <v>630.9235793935219</v>
       </c>
       <c r="L39" t="n">
-        <v>302.5010324867266</v>
+        <v>705.664994242356</v>
       </c>
       <c r="M39" t="n">
-        <v>389.720738290527</v>
+        <v>792.8847000461564</v>
       </c>
       <c r="N39" t="n">
-        <v>479.2488901766195</v>
+        <v>882.4128519322488</v>
       </c>
       <c r="O39" t="n">
-        <v>561.1496584082062</v>
+        <v>964.3136201638355</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.605411892526</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.7256394433</v>
@@ -7295,10 +7295,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X39" t="n">
-        <v>851.9549379477321</v>
+        <v>851.9549379477322</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.4691587269529</v>
+        <v>725.469158726953</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1095.555322661513</v>
+        <v>1169.027651138108</v>
       </c>
       <c r="C40" t="n">
-        <v>922.9936111447383</v>
+        <v>996.4659396213332</v>
       </c>
       <c r="D40" t="n">
-        <v>757.115618346261</v>
+        <v>830.5879468228559</v>
       </c>
       <c r="E40" t="n">
-        <v>587.3576145969982</v>
+        <v>660.8299430735932</v>
       </c>
       <c r="F40" t="n">
-        <v>410.6505605587545</v>
+        <v>484.1228890353494</v>
       </c>
       <c r="G40" t="n">
-        <v>245.3537349184273</v>
+        <v>318.8260633950222</v>
       </c>
       <c r="H40" t="n">
         <v>181.5418113444924</v>
@@ -7368,16 +7368,16 @@
         <v>2319.167279276258</v>
       </c>
       <c r="V40" t="n">
-        <v>2032.211771146688</v>
+        <v>2105.684099623283</v>
       </c>
       <c r="W40" t="n">
-        <v>1760.18536673298</v>
+        <v>1833.657695209575</v>
       </c>
       <c r="X40" t="n">
-        <v>1514.793612066392</v>
+        <v>1588.265940542987</v>
       </c>
       <c r="Y40" t="n">
-        <v>1287.373941380501</v>
+        <v>1360.846269857095</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1321.623521031531</v>
+        <v>1367.095983344312</v>
       </c>
       <c r="C41" t="n">
-        <v>1321.623521031531</v>
+        <v>1367.095983344312</v>
       </c>
       <c r="D41" t="n">
-        <v>1321.623521031531</v>
+        <v>931.1861985187566</v>
       </c>
       <c r="E41" t="n">
-        <v>887.8487761898266</v>
+        <v>497.4114536770517</v>
       </c>
       <c r="F41" t="n">
-        <v>459.9813465990343</v>
+        <v>69.54402408625947</v>
       </c>
       <c r="G41" t="n">
         <v>59.23993950240976</v>
@@ -7414,25 +7414,25 @@
         <v>573.4938212467763</v>
       </c>
       <c r="K41" t="n">
-        <v>1083.476519099106</v>
+        <v>965.6688700532133</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.003779058597</v>
+        <v>1067.196130012704</v>
       </c>
       <c r="M41" t="n">
-        <v>1918.098030400918</v>
+        <v>1180.16476892633</v>
       </c>
       <c r="N41" t="n">
-        <v>2651.192281743239</v>
+        <v>1294.961358522653</v>
       </c>
       <c r="O41" t="n">
-        <v>2759.591446051017</v>
+        <v>1403.360522830432</v>
       </c>
       <c r="P41" t="n">
-        <v>2852.107624884404</v>
+        <v>2136.454774172752</v>
       </c>
       <c r="Q41" t="n">
-        <v>2921.583422257472</v>
+        <v>2752.429357504415</v>
       </c>
       <c r="R41" t="n">
         <v>2961.996975120488</v>
@@ -7441,22 +7441,22 @@
         <v>2961.996975120488</v>
       </c>
       <c r="T41" t="n">
-        <v>2744.803245279715</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="U41" t="n">
-        <v>2511.669058218741</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="V41" t="n">
-        <v>2149.052108152567</v>
+        <v>2599.380025054315</v>
       </c>
       <c r="W41" t="n">
-        <v>2149.052108152567</v>
+        <v>2194.524570465348</v>
       </c>
       <c r="X41" t="n">
-        <v>1729.909644731878</v>
+        <v>1775.382107044659</v>
       </c>
       <c r="Y41" t="n">
-        <v>1321.623521031531</v>
+        <v>1367.095983344312</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>454.2357367164866</v>
       </c>
       <c r="K42" t="n">
-        <v>509.8211254749861</v>
+        <v>588.4267622644034</v>
       </c>
       <c r="L42" t="n">
-        <v>584.5625403238201</v>
+        <v>663.1681771132372</v>
       </c>
       <c r="M42" t="n">
-        <v>671.7822461276206</v>
+        <v>750.3878829170377</v>
       </c>
       <c r="N42" t="n">
-        <v>1404.876497469941</v>
+        <v>839.9160348031302</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.777265701528</v>
+        <v>921.8168030347168</v>
       </c>
       <c r="P42" t="n">
-        <v>1552.50985270665</v>
+        <v>987.5493900398382</v>
       </c>
       <c r="Q42" t="n">
-        <v>1596.450346348917</v>
+        <v>1572.228822314182</v>
       </c>
       <c r="R42" t="n">
         <v>1710.773976301867</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1126.530834008989</v>
+        <v>1053.058505532395</v>
       </c>
       <c r="C43" t="n">
-        <v>953.9691224922143</v>
+        <v>953.9691224922145</v>
       </c>
       <c r="D43" t="n">
-        <v>788.091129693737</v>
+        <v>788.0911296937372</v>
       </c>
       <c r="E43" t="n">
-        <v>618.3331259444743</v>
+        <v>618.3331259444744</v>
       </c>
       <c r="F43" t="n">
-        <v>441.6260719062305</v>
+        <v>441.6260719062306</v>
       </c>
       <c r="G43" t="n">
         <v>276.3292462659034</v>
       </c>
       <c r="H43" t="n">
-        <v>139.0449942153736</v>
+        <v>139.0449942153737</v>
       </c>
       <c r="I43" t="n">
         <v>59.23993950240976</v>
@@ -7572,7 +7572,7 @@
         <v>166.2229229686835</v>
       </c>
       <c r="K43" t="n">
-        <v>474.5102642948972</v>
+        <v>474.5102642948971</v>
       </c>
       <c r="L43" t="n">
         <v>935.6255775176741</v>
@@ -7584,37 +7584,37 @@
         <v>1926.768118362182</v>
       </c>
       <c r="O43" t="n">
-        <v>2387.228222929744</v>
+        <v>2387.228222929743</v>
       </c>
       <c r="P43" t="n">
-        <v>2769.638740482993</v>
+        <v>2769.638740482992</v>
       </c>
       <c r="Q43" t="n">
-        <v>2961.996975120489</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="R43" t="n">
-        <v>2961.996975120489</v>
+        <v>2953.818666600387</v>
       </c>
       <c r="S43" t="n">
-        <v>2807.887055263768</v>
+        <v>2799.708746743667</v>
       </c>
       <c r="T43" t="n">
-        <v>2563.26571054138</v>
+        <v>2555.087402021279</v>
       </c>
       <c r="U43" t="n">
-        <v>2284.84877066724</v>
+        <v>2276.670462147139</v>
       </c>
       <c r="V43" t="n">
-        <v>1997.893262537671</v>
+        <v>1989.714954017569</v>
       </c>
       <c r="W43" t="n">
-        <v>1725.866858123962</v>
+        <v>1717.688549603861</v>
       </c>
       <c r="X43" t="n">
-        <v>1480.475103457375</v>
+        <v>1472.296794937273</v>
       </c>
       <c r="Y43" t="n">
-        <v>1318.349452727977</v>
+        <v>1244.877124251382</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1170.256325587918</v>
+        <v>1323.758561015382</v>
       </c>
       <c r="C44" t="n">
-        <v>1170.256325587918</v>
+        <v>1323.758561015382</v>
       </c>
       <c r="D44" t="n">
-        <v>1170.256325587918</v>
+        <v>887.8487761898266</v>
       </c>
       <c r="E44" t="n">
-        <v>1170.256325587918</v>
+        <v>887.8487761898266</v>
       </c>
       <c r="F44" t="n">
-        <v>742.3888959971255</v>
+        <v>459.9813465990343</v>
       </c>
       <c r="G44" t="n">
-        <v>341.6474889005009</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="H44" t="n">
         <v>59.23993950240976</v>
@@ -7648,28 +7648,28 @@
         <v>83.63463603559688</v>
       </c>
       <c r="J44" t="n">
-        <v>138.2391337938583</v>
+        <v>573.4938212467763</v>
       </c>
       <c r="K44" t="n">
-        <v>871.3333851361791</v>
+        <v>1306.588072589097</v>
       </c>
       <c r="L44" t="n">
-        <v>972.8606450956701</v>
+        <v>1629.57790144569</v>
       </c>
       <c r="M44" t="n">
-        <v>1085.829284009296</v>
+        <v>1742.546540359315</v>
       </c>
       <c r="N44" t="n">
-        <v>1464.11542327571</v>
+        <v>1857.343129955639</v>
       </c>
       <c r="O44" t="n">
-        <v>1572.514587583488</v>
+        <v>2590.43738129796</v>
       </c>
       <c r="P44" t="n">
-        <v>2305.608838925809</v>
+        <v>2682.953560131347</v>
       </c>
       <c r="Q44" t="n">
-        <v>2921.583422257472</v>
+        <v>2752.429357504415</v>
       </c>
       <c r="R44" t="n">
         <v>2961.996975120488</v>
@@ -7684,16 +7684,16 @@
         <v>2416.93985100602</v>
       </c>
       <c r="V44" t="n">
-        <v>2054.322900939846</v>
+        <v>2158.344255200637</v>
       </c>
       <c r="W44" t="n">
-        <v>1649.46744635088</v>
+        <v>2158.344255200637</v>
       </c>
       <c r="X44" t="n">
-        <v>1230.32498293019</v>
+        <v>2158.344255200637</v>
       </c>
       <c r="Y44" t="n">
-        <v>1230.32498293019</v>
+        <v>1750.05813150029</v>
       </c>
     </row>
     <row r="45">
@@ -7730,7 +7730,7 @@
         <v>454.2357367164866</v>
       </c>
       <c r="K45" t="n">
-        <v>588.4267622644032</v>
+        <v>588.4267622644034</v>
       </c>
       <c r="L45" t="n">
         <v>663.1681771132372</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1053.058505532395</v>
+        <v>1126.53083400899</v>
       </c>
       <c r="C46" t="n">
-        <v>880.4967940156195</v>
+        <v>953.9691224922145</v>
       </c>
       <c r="D46" t="n">
-        <v>714.6188012171422</v>
+        <v>788.0911296937372</v>
       </c>
       <c r="E46" t="n">
-        <v>544.8607974678794</v>
+        <v>618.3331259444744</v>
       </c>
       <c r="F46" t="n">
-        <v>368.1537434296356</v>
+        <v>441.6260719062306</v>
       </c>
       <c r="G46" t="n">
         <v>276.3292462659034</v>
       </c>
       <c r="H46" t="n">
-        <v>139.0449942153736</v>
+        <v>139.0449942153737</v>
       </c>
       <c r="I46" t="n">
         <v>59.23993950240976</v>
@@ -7809,19 +7809,19 @@
         <v>166.2229229686835</v>
       </c>
       <c r="K46" t="n">
-        <v>474.5102642948971</v>
+        <v>474.5102642948972</v>
       </c>
       <c r="L46" t="n">
-        <v>935.6255775176739</v>
+        <v>935.6255775176741</v>
       </c>
       <c r="M46" t="n">
         <v>1440.347206382297</v>
       </c>
       <c r="N46" t="n">
-        <v>1926.768118362182</v>
+        <v>1926.768118362181</v>
       </c>
       <c r="O46" t="n">
-        <v>2387.228222929744</v>
+        <v>2387.228222929743</v>
       </c>
       <c r="P46" t="n">
         <v>2769.638740482992</v>
@@ -7833,25 +7833,25 @@
         <v>2953.818666600387</v>
       </c>
       <c r="S46" t="n">
-        <v>2799.708746743667</v>
+        <v>2873.181075220262</v>
       </c>
       <c r="T46" t="n">
-        <v>2555.087402021279</v>
+        <v>2628.559730497874</v>
       </c>
       <c r="U46" t="n">
-        <v>2276.670462147139</v>
+        <v>2350.142790623734</v>
       </c>
       <c r="V46" t="n">
-        <v>1989.714954017569</v>
+        <v>2063.187282494165</v>
       </c>
       <c r="W46" t="n">
-        <v>1717.688549603861</v>
+        <v>1791.160878080456</v>
       </c>
       <c r="X46" t="n">
-        <v>1472.296794937273</v>
+        <v>1545.769123413869</v>
       </c>
       <c r="Y46" t="n">
-        <v>1244.877124251382</v>
+        <v>1318.349452727977</v>
       </c>
     </row>
   </sheetData>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>310.5396916710387</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,10 +8300,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8455,22 +8455,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>313.4717792147652</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>624.5430926727244</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>506.8399363016274</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>647.0485580898321</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>652.3985308469903</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>625.6005812338311</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>445.7220263676586</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>313.4717792147652</v>
       </c>
       <c r="L14" t="n">
-        <v>637.9464559422523</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>626.3895075037326</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>624.5430926727242</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1741480187866</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>647.0485580898321</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3523864483043</v>
+        <v>79.39963312062343</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>413.7681707663446</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,22 +9169,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2193279740013</v>
+        <v>100.0390388062842</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9403,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>840.8769935041046</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>394.3629695924146</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>105.726575706944</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1141.30235572941</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>469.3869747141334</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>979.764215705215</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,16 +9877,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>151.22188444627</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>394.3629695924146</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>389.6298495515666</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1157.599721617717</v>
+        <v>1013.329389053866</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>551.9196091014411</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>372.1709879190969</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1157.599721617717</v>
       </c>
       <c r="N32" t="n">
-        <v>150.0535982222787</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1098.120557214649</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>79.39963312062332</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>394.3629695924149</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>298.5242830443794</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>105.726575706944</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10825,16 +10825,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>703.2408601620223</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>394.3629695924146</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10843,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10901,10 +10901,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>125.4340746550577</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11062,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>432.4694045136472</v>
+        <v>313.4717792147652</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>626.3895075037326</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>624.543092672724</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>647.0485580898321</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>79.39963312062343</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>650.0667671275035</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>93.89015561576161</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>657.8346100590923</v>
+        <v>657.8346100590924</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>223.6995645425272</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>266.151060272819</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>631.00513841873</v>
       </c>
       <c r="P44" t="n">
-        <v>647.0485580898321</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>79.39963312062332</v>
+        <v>79.39963312062343</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>396.7339930256583</v>
@@ -23311,19 +23311,19 @@
         <v>68.00666947778936</v>
       </c>
       <c r="T11" t="n">
-        <v>215.0217925423652</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5780908531684</v>
+        <v>46.44780087103982</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>63.01704327006252</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.73760519182905</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.73760519182882</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>64.56922378488781</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.7339930256583</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>279.5834739041102</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>311.4496933213687</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.737605191829</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.73760519182927</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>72.73760519182896</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>72.73760519182885</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>72.73760519182895</v>
       </c>
       <c r="F22" t="n">
-        <v>72.73760519182885</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>72.73760519182889</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.73760519182891</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.73760519182885</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>64.64107975692576</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.73760519182885</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>72.73760519182889</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.73760519182888</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>72.73760519182883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.73760519182885</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.09652543489978</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>64.64107975692895</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.73760519182885</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>72.73760519182886</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>386.5329492876471</v>
       </c>
       <c r="H41" t="n">
         <v>279.5834739041102</v>
@@ -25681,16 +25681,16 @@
         <v>68.00666947778936</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.0217925423652</v>
       </c>
       <c r="U41" t="n">
-        <v>25.77524566280371</v>
+        <v>256.5780908531684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>72.73760519182912</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.64107975692846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>362.5686040112087</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>279.5834739041102</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>102.9811407181823</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.73760519182899</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.73760519182927</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632646.1752590775</v>
+        <v>632646.1752590776</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430794.3430075581</v>
+        <v>430794.343007558</v>
       </c>
     </row>
     <row r="16">
@@ -26322,19 +26322,19 @@
         <v>415514.1729150667</v>
       </c>
       <c r="E2" t="n">
-        <v>286986.0477102878</v>
+        <v>286986.0477102879</v>
       </c>
       <c r="F2" t="n">
-        <v>286986.0477102878</v>
+        <v>286986.0477102877</v>
       </c>
       <c r="G2" t="n">
-        <v>414161.2534584985</v>
+        <v>414161.2534584986</v>
       </c>
       <c r="H2" t="n">
-        <v>414161.2534584985</v>
+        <v>414161.2534584986</v>
       </c>
       <c r="I2" t="n">
-        <v>414161.2534584985</v>
+        <v>414161.2534584986</v>
       </c>
       <c r="J2" t="n">
         <v>414161.2534584986</v>
@@ -26355,7 +26355,7 @@
         <v>286986.0477102878</v>
       </c>
       <c r="P2" t="n">
-        <v>286986.0477102877</v>
+        <v>286986.0477102878</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>145596.7515354314</v>
+        <v>145596.7515354315</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26438,25 +26438,25 @@
         <v>112417.4850813282</v>
       </c>
       <c r="I4" t="n">
-        <v>112417.4850813282</v>
+        <v>112417.4850813283</v>
       </c>
       <c r="J4" t="n">
         <v>112417.4850813282</v>
       </c>
       <c r="K4" t="n">
-        <v>112417.4850813282</v>
+        <v>112417.4850813283</v>
       </c>
       <c r="L4" t="n">
-        <v>112417.4850813282</v>
+        <v>112417.4850813283</v>
       </c>
       <c r="M4" t="n">
-        <v>112417.4850813282</v>
+        <v>112417.4850813283</v>
       </c>
       <c r="N4" t="n">
         <v>112417.4850813282</v>
       </c>
       <c r="O4" t="n">
-        <v>70309.12320163196</v>
+        <v>70309.12320163194</v>
       </c>
       <c r="P4" t="n">
         <v>70309.12320163194</v>
@@ -26484,28 +26484,28 @@
         <v>48546.38253915669</v>
       </c>
       <c r="G5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="H5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="I5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="J5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="K5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="L5" t="n">
-        <v>80843.96355728694</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="M5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="N5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="O5" t="n">
         <v>48546.38253915669</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16591.47510513721</v>
+        <v>-16591.47510513727</v>
       </c>
       <c r="C6" t="n">
         <v>125599.8255545727</v>
@@ -26530,40 +26530,40 @@
         <v>125599.8255545729</v>
       </c>
       <c r="E6" t="n">
-        <v>-56153.08420263316</v>
+        <v>-56567.69105813233</v>
       </c>
       <c r="F6" t="n">
-        <v>168130.5419694992</v>
+        <v>167715.9351139998</v>
       </c>
       <c r="G6" t="n">
-        <v>75303.05328445203</v>
+        <v>75298.68902814045</v>
       </c>
       <c r="H6" t="n">
-        <v>220899.8048198834</v>
+        <v>220895.4405635719</v>
       </c>
       <c r="I6" t="n">
-        <v>220899.8048198834</v>
+        <v>220895.4405635719</v>
       </c>
       <c r="J6" t="n">
-        <v>109885.3394748933</v>
+        <v>109880.9752185817</v>
       </c>
       <c r="K6" t="n">
-        <v>220899.8048198833</v>
+        <v>220895.4405635718</v>
       </c>
       <c r="L6" t="n">
-        <v>220899.8048198833</v>
+        <v>220895.4405635718</v>
       </c>
       <c r="M6" t="n">
-        <v>142100.6561503419</v>
+        <v>142096.2918940303</v>
       </c>
       <c r="N6" t="n">
-        <v>220899.8048198834</v>
+        <v>220895.4405635719</v>
       </c>
       <c r="O6" t="n">
-        <v>168130.5419694992</v>
+        <v>167715.9351139999</v>
       </c>
       <c r="P6" t="n">
-        <v>168130.5419694991</v>
+        <v>167715.9351139999</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>531.2102141139842</v>
+        <v>531.2102141139844</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>531.2102141139842</v>
+        <v>531.2102141139844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27441,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>106.885691984759</v>
       </c>
       <c r="X2" t="n">
-        <v>97.42050141645262</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>3.67821990694145</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5195640544053</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>12.57673674162123</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>187.4906859516494</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27672,16 +27672,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.1892614508909</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>83.19472953117196</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3793744531705556</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>84.03938820870468</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>251.8326515297148</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29447,7 +29447,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H11" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I11" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J11" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K11" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L11" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M11" t="n">
         <v>114.1097362763894</v>
@@ -31779,22 +31779,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P11" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R11" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S11" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T11" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I12" t="n">
         <v>11.97144878873264</v>
@@ -31846,34 +31846,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L12" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M12" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N12" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O12" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P12" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R12" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S12" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T12" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H13" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I13" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J13" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K13" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L13" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M13" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N13" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O13" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P13" t="n">
         <v>35.25618543728032</v>
@@ -31946,7 +31946,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S13" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T13" t="n">
         <v>1.245520682164894</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H14" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I14" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J14" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K14" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L14" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M14" t="n">
         <v>114.1097362763894</v>
@@ -32016,22 +32016,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P14" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R14" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S14" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T14" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I15" t="n">
         <v>11.97144878873264</v>
@@ -32083,34 +32083,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L15" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M15" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N15" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O15" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P15" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R15" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S15" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T15" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H16" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I16" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J16" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K16" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L16" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M16" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N16" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O16" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P16" t="n">
         <v>35.25618543728032</v>
@@ -32183,7 +32183,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S16" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T16" t="n">
         <v>1.245520682164894</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H17" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I17" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J17" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K17" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L17" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M17" t="n">
         <v>114.1097362763894</v>
@@ -32253,22 +32253,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P17" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R17" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S17" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T17" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I18" t="n">
         <v>11.97144878873264</v>
@@ -32320,34 +32320,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L18" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M18" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N18" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O18" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P18" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R18" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S18" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T18" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H19" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I19" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J19" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K19" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L19" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M19" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N19" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O19" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P19" t="n">
         <v>35.25618543728032</v>
@@ -32420,7 +32420,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S19" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T19" t="n">
         <v>1.245520682164894</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H20" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I20" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J20" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K20" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L20" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M20" t="n">
         <v>114.1097362763894</v>
@@ -32490,22 +32490,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P20" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R20" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S20" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T20" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I21" t="n">
         <v>11.97144878873264</v>
@@ -32557,34 +32557,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L21" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M21" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N21" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O21" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P21" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R21" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S21" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T21" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H22" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I22" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J22" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K22" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L22" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M22" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N22" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O22" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P22" t="n">
         <v>35.25618543728032</v>
@@ -32657,7 +32657,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S22" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T22" t="n">
         <v>1.245520682164894</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H23" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I23" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J23" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K23" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L23" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M23" t="n">
         <v>114.1097362763894</v>
@@ -32727,22 +32727,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P23" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R23" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S23" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T23" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I24" t="n">
         <v>11.97144878873264</v>
@@ -32794,34 +32794,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L24" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M24" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N24" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O24" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P24" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R24" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S24" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T24" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H25" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I25" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J25" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K25" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L25" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M25" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N25" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O25" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P25" t="n">
         <v>35.25618543728032</v>
@@ -32894,7 +32894,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S25" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T25" t="n">
         <v>1.245520682164894</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H26" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I26" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J26" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K26" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L26" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M26" t="n">
         <v>114.1097362763894</v>
@@ -32964,22 +32964,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P26" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R26" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S26" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T26" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I27" t="n">
         <v>11.97144878873264</v>
@@ -33031,34 +33031,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L27" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M27" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N27" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O27" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P27" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R27" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S27" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T27" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H28" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I28" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J28" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K28" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L28" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M28" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N28" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O28" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P28" t="n">
         <v>35.25618543728032</v>
@@ -33131,7 +33131,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S28" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T28" t="n">
         <v>1.245520682164894</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H29" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I29" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J29" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K29" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L29" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M29" t="n">
         <v>114.1097362763894</v>
@@ -33201,22 +33201,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P29" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q29" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R29" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S29" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T29" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I30" t="n">
         <v>11.97144878873264</v>
@@ -33268,34 +33268,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L30" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M30" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N30" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O30" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P30" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R30" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S30" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T30" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H31" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I31" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J31" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K31" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L31" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M31" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N31" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O31" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P31" t="n">
         <v>35.25618543728032</v>
@@ -33368,7 +33368,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S31" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T31" t="n">
         <v>1.245520682164894</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H32" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I32" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J32" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K32" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L32" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M32" t="n">
         <v>114.1097362763894</v>
@@ -33438,22 +33438,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P32" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R32" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S32" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T32" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I33" t="n">
         <v>11.97144878873264</v>
@@ -33505,34 +33505,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L33" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M33" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N33" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O33" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P33" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R33" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S33" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T33" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H34" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I34" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J34" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K34" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L34" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M34" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N34" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O34" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P34" t="n">
         <v>35.25618543728032</v>
@@ -33605,7 +33605,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S34" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T34" t="n">
         <v>1.245520682164894</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H35" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I35" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J35" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K35" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L35" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M35" t="n">
         <v>114.1097362763894</v>
@@ -33675,22 +33675,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P35" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R35" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S35" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T35" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I36" t="n">
         <v>11.97144878873264</v>
@@ -33742,34 +33742,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L36" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M36" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N36" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O36" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P36" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R36" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S36" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T36" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H37" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I37" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J37" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K37" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L37" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M37" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N37" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O37" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P37" t="n">
         <v>35.25618543728032</v>
@@ -33842,7 +33842,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S37" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T37" t="n">
         <v>1.245520682164894</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H38" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I38" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J38" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K38" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L38" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M38" t="n">
         <v>114.1097362763894</v>
@@ -33912,22 +33912,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P38" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R38" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S38" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T38" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I39" t="n">
         <v>11.97144878873264</v>
@@ -33979,34 +33979,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L39" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M39" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N39" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O39" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P39" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R39" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S39" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T39" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H40" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I40" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J40" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K40" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L40" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M40" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N40" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O40" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P40" t="n">
         <v>35.25618543728032</v>
@@ -34079,7 +34079,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S40" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T40" t="n">
         <v>1.245520682164894</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H41" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I41" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J41" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K41" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L41" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M41" t="n">
         <v>114.1097362763894</v>
@@ -34149,22 +34149,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P41" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R41" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S41" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T41" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I42" t="n">
         <v>11.97144878873264</v>
@@ -34216,34 +34216,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L42" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M42" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N42" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O42" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P42" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R42" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S42" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T42" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H43" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I43" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J43" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K43" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L43" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M43" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N43" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O43" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P43" t="n">
         <v>35.25618543728032</v>
@@ -34316,7 +34316,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S43" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T43" t="n">
         <v>1.245520682164894</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104545</v>
       </c>
       <c r="H44" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105694</v>
       </c>
       <c r="I44" t="n">
-        <v>25.05372908841133</v>
+        <v>25.05372908841132</v>
       </c>
       <c r="J44" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167824</v>
       </c>
       <c r="K44" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L44" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M44" t="n">
         <v>114.1097362763894</v>
@@ -34386,22 +34386,22 @@
         <v>109.4941053613919</v>
       </c>
       <c r="P44" t="n">
-        <v>93.45068569029009</v>
+        <v>93.45068569029006</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410938</v>
       </c>
       <c r="R44" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870287</v>
       </c>
       <c r="S44" t="n">
         <v>14.808685600212</v>
       </c>
       <c r="T44" t="n">
-        <v>2.844762313326517</v>
+        <v>2.844762313326516</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483635</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3477057737364384</v>
+        <v>0.3477057737364382</v>
       </c>
       <c r="H45" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138759</v>
       </c>
       <c r="I45" t="n">
         <v>11.97144878873264</v>
@@ -34453,34 +34453,34 @@
         <v>56.14685733181776</v>
       </c>
       <c r="L45" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518586</v>
       </c>
       <c r="M45" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313173</v>
       </c>
       <c r="N45" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261865</v>
       </c>
       <c r="O45" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877442</v>
       </c>
       <c r="P45" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.38433701239168</v>
+        <v>44.38433701239167</v>
       </c>
       <c r="R45" t="n">
         <v>21.58825847812729</v>
       </c>
       <c r="S45" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621996</v>
       </c>
       <c r="T45" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02287537985108148</v>
+        <v>0.02287537985108147</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,31 +34517,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2915048405066775</v>
+        <v>0.2915048405066774</v>
       </c>
       <c r="H46" t="n">
         <v>2.591743036504825</v>
       </c>
       <c r="I46" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237174</v>
       </c>
       <c r="J46" t="n">
         <v>20.60939222382209</v>
       </c>
       <c r="K46" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886669</v>
       </c>
       <c r="L46" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132912</v>
       </c>
       <c r="M46" t="n">
-        <v>45.69470877142399</v>
+        <v>45.69470877142398</v>
       </c>
       <c r="N46" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953549</v>
       </c>
       <c r="O46" t="n">
-        <v>41.20288418361658</v>
+        <v>41.20288418361657</v>
       </c>
       <c r="P46" t="n">
         <v>35.25618543728032</v>
@@ -34553,7 +34553,7 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S46" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830004</v>
       </c>
       <c r="T46" t="n">
         <v>1.245520682164894</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>310.5396916710387</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35175,22 +35175,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J11" t="n">
         <v>494.8072577890701</v>
       </c>
       <c r="K11" t="n">
-        <v>82.66463372102965</v>
+        <v>396.136412935795</v>
       </c>
       <c r="L11" t="n">
-        <v>102.5527878378697</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M11" t="n">
         <v>114.1097362763894</v>
       </c>
       <c r="N11" t="n">
-        <v>740.4992437801221</v>
+        <v>115.9561511073978</v>
       </c>
       <c r="O11" t="n">
-        <v>616.3340416630194</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P11" t="n">
-        <v>93.4506856902899</v>
+        <v>740.499243780122</v>
       </c>
       <c r="Q11" t="n">
         <v>622.1965488198616</v>
       </c>
       <c r="R11" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384574</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J12" t="n">
-        <v>32.85057049147639</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K12" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L12" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518581</v>
       </c>
       <c r="M12" t="n">
-        <v>740.499243780122</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N12" t="n">
-        <v>90.43247665261856</v>
+        <v>716.0330578864498</v>
       </c>
       <c r="O12" t="n">
         <v>82.72804871877452</v>
@@ -35509,10 +35509,10 @@
         <v>66.39655253042565</v>
       </c>
       <c r="Q12" t="n">
-        <v>490.1063633800502</v>
+        <v>44.3843370123916</v>
       </c>
       <c r="R12" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>108.0636196629027</v>
+        <v>108.0636196629028</v>
       </c>
       <c r="K13" t="n">
         <v>311.4013548749633</v>
@@ -35576,19 +35576,19 @@
         <v>465.7730436593706</v>
       </c>
       <c r="M13" t="n">
-        <v>509.8198271359827</v>
+        <v>509.8198271359826</v>
       </c>
       <c r="N13" t="n">
-        <v>491.334254525136</v>
+        <v>491.3342545251362</v>
       </c>
       <c r="O13" t="n">
-        <v>465.1112167349111</v>
+        <v>465.1112167349113</v>
       </c>
       <c r="P13" t="n">
         <v>386.2732500537873</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3012471085813</v>
+        <v>194.3012471085808</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J14" t="n">
-        <v>55.15605834167823</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K14" t="n">
-        <v>82.66463372102982</v>
+        <v>396.136412935795</v>
       </c>
       <c r="L14" t="n">
+        <v>102.5527878378696</v>
+      </c>
+      <c r="M14" t="n">
+        <v>114.1097362763894</v>
+      </c>
+      <c r="N14" t="n">
+        <v>115.9561511073978</v>
+      </c>
+      <c r="O14" t="n">
+        <v>109.494105361392</v>
+      </c>
+      <c r="P14" t="n">
         <v>740.499243780122</v>
       </c>
-      <c r="M14" t="n">
-        <v>740.499243780122</v>
-      </c>
-      <c r="N14" t="n">
-        <v>740.499243780122</v>
-      </c>
-      <c r="O14" t="n">
-        <v>343.6682533801786</v>
-      </c>
-      <c r="P14" t="n">
-        <v>93.4506856902899</v>
-      </c>
       <c r="Q14" t="n">
-        <v>70.17757310410934</v>
+        <v>622.1965488198616</v>
       </c>
       <c r="R14" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384574</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J15" t="n">
-        <v>32.85057049147639</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K15" t="n">
-        <v>740.499243780122</v>
+        <v>135.5464904524412</v>
       </c>
       <c r="L15" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518581</v>
       </c>
       <c r="M15" t="n">
         <v>88.10071293313172</v>
       </c>
       <c r="N15" t="n">
-        <v>90.43247665261856</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O15" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P15" t="n">
-        <v>480.1647232967703</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255994</v>
       </c>
       <c r="R15" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>108.0636196629028</v>
       </c>
       <c r="K16" t="n">
-        <v>311.4013548749633</v>
+        <v>311.4013548749637</v>
       </c>
       <c r="L16" t="n">
-        <v>465.7730436593706</v>
+        <v>465.7730436593705</v>
       </c>
       <c r="M16" t="n">
         <v>509.8198271359826</v>
@@ -35819,13 +35819,13 @@
         <v>491.3342545251362</v>
       </c>
       <c r="O16" t="n">
-        <v>465.1112167349108</v>
+        <v>465.1112167349111</v>
       </c>
       <c r="P16" t="n">
         <v>386.2732500537873</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.3012471085813</v>
+        <v>194.3012471085808</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J17" t="n">
-        <v>494.80725778907</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K17" t="n">
         <v>82.66463372102976</v>
       </c>
       <c r="L17" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M17" t="n">
-        <v>670.3290642503907</v>
+        <v>214.1487750826736</v>
       </c>
       <c r="N17" t="n">
-        <v>1253.058154578557</v>
+        <v>1253.058154578556</v>
       </c>
       <c r="O17" t="n">
-        <v>109.494105361392</v>
+        <v>1099.57457664453</v>
       </c>
       <c r="P17" t="n">
         <v>930.127326936145</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.1775731041098</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R17" t="n">
         <v>211.6844622384569</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J20" t="n">
-        <v>494.80725778907</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K20" t="n">
-        <v>82.66463372102976</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L20" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M20" t="n">
-        <v>954.986729780494</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N20" t="n">
-        <v>1253.058154578556</v>
+        <v>510.3191206998124</v>
       </c>
       <c r="O20" t="n">
-        <v>109.494105361392</v>
+        <v>1099.57457664453</v>
       </c>
       <c r="P20" t="n">
-        <v>93.4506856902899</v>
+        <v>930.127326936145</v>
       </c>
       <c r="Q20" t="n">
-        <v>622.1965488198621</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R20" t="n">
         <v>211.6844622384569</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J21" t="n">
         <v>360.6872623765394</v>
       </c>
       <c r="K21" t="n">
-        <v>161.8734330387617</v>
+        <v>135.5464904524409</v>
       </c>
       <c r="L21" t="n">
         <v>75.49637863518592</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J23" t="n">
-        <v>494.80725778907</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K23" t="n">
-        <v>925.4427064060581</v>
+        <v>82.66463372102976</v>
       </c>
       <c r="L23" t="n">
-        <v>1188.471945669041</v>
+        <v>1188.47194566904</v>
       </c>
       <c r="M23" t="n">
-        <v>114.1097362763894</v>
+        <v>1255.412092005799</v>
       </c>
       <c r="N23" t="n">
-        <v>115.956151107398</v>
+        <v>115.9561511073975</v>
       </c>
       <c r="O23" t="n">
-        <v>578.8810800755255</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P23" t="n">
         <v>930.127326936145</v>
       </c>
       <c r="Q23" t="n">
-        <v>622.1965488198621</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R23" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384569</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J24" t="n">
-        <v>32.85057049147639</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K24" t="n">
-        <v>56.14685733181776</v>
+        <v>135.5464904524409</v>
       </c>
       <c r="L24" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M24" t="n">
-        <v>1067.864928638347</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N24" t="n">
-        <v>90.43247665261856</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O24" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P24" t="n">
         <v>66.39655253042565</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255995</v>
       </c>
       <c r="R24" t="n">
         <v>139.9445999875613</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J26" t="n">
-        <v>494.80725778907</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K26" t="n">
-        <v>233.8865181672998</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L26" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M26" t="n">
         <v>114.1097362763894</v>
       </c>
       <c r="N26" t="n">
-        <v>115.956151107398</v>
+        <v>510.3191206998124</v>
       </c>
       <c r="O26" t="n">
         <v>1099.57457664453</v>
@@ -36615,7 +36615,7 @@
         <v>930.127326936145</v>
       </c>
       <c r="Q26" t="n">
-        <v>622.1965488198621</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R26" t="n">
         <v>211.6844622384569</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J29" t="n">
         <v>55.15605834167825</v>
       </c>
       <c r="K29" t="n">
-        <v>82.66463372102979</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L29" t="n">
-        <v>492.1826373894363</v>
+        <v>1188.471945669041</v>
       </c>
       <c r="M29" t="n">
-        <v>1271.709457894106</v>
+        <v>1127.439125330255</v>
       </c>
       <c r="N29" t="n">
         <v>1253.058154578556</v>
@@ -36852,7 +36852,7 @@
         <v>93.4506856902899</v>
       </c>
       <c r="Q29" t="n">
-        <v>622.1965488198621</v>
+        <v>70.1775731041098</v>
       </c>
       <c r="R29" t="n">
         <v>40.82177056870296</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J30" t="n">
-        <v>32.85057049147639</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K30" t="n">
-        <v>56.14685733181776</v>
+        <v>135.5464904524409</v>
       </c>
       <c r="L30" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M30" t="n">
         <v>88.10071293313172</v>
@@ -36928,13 +36928,13 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P30" t="n">
-        <v>618.3161616318667</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q30" t="n">
         <v>590.5852851255995</v>
       </c>
       <c r="R30" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J32" t="n">
-        <v>55.15605834167825</v>
+        <v>427.3270462607752</v>
       </c>
       <c r="K32" t="n">
-        <v>925.4427064060581</v>
+        <v>82.66463372102976</v>
       </c>
       <c r="L32" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M32" t="n">
         <v>1271.709457894106</v>
       </c>
       <c r="N32" t="n">
-        <v>266.0097493296767</v>
+        <v>1253.058154578556</v>
       </c>
       <c r="O32" t="n">
-        <v>1099.57457664453</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P32" t="n">
-        <v>93.4506856902899</v>
+        <v>930.127326936145</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.1775731041098</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R32" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384569</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J33" t="n">
-        <v>32.85057049147639</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K33" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L33" t="n">
-        <v>75.49637863518589</v>
+        <v>75.49637863518581</v>
       </c>
       <c r="M33" t="n">
-        <v>88.10071293313177</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N33" t="n">
-        <v>1188.553033867267</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O33" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P33" t="n">
-        <v>66.39655253042565</v>
+        <v>145.796185651049</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255995</v>
       </c>
       <c r="R33" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J35" t="n">
-        <v>494.80725778907</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K35" t="n">
-        <v>925.4427064060581</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L35" t="n">
-        <v>1188.471945669041</v>
+        <v>496.9157574302844</v>
       </c>
       <c r="M35" t="n">
         <v>114.1097362763894</v>
       </c>
       <c r="N35" t="n">
-        <v>115.956151107398</v>
+        <v>115.9561511073975</v>
       </c>
       <c r="O35" t="n">
-        <v>408.0183884057715</v>
+        <v>1099.57457664453</v>
       </c>
       <c r="P35" t="n">
         <v>930.127326936145</v>
       </c>
       <c r="Q35" t="n">
-        <v>622.1965488198621</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R35" t="n">
         <v>211.6844622384569</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J36" t="n">
         <v>360.6872623765394</v>
       </c>
       <c r="K36" t="n">
-        <v>56.14685733181773</v>
+        <v>135.5464904524409</v>
       </c>
       <c r="L36" t="n">
         <v>75.49637863518592</v>
@@ -37402,7 +37402,7 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P36" t="n">
-        <v>172.1231282373697</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q36" t="n">
         <v>590.5852851255995</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J38" t="n">
-        <v>494.80725778907</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K38" t="n">
-        <v>785.905493883052</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L38" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M38" t="n">
         <v>114.1097362763894</v>
       </c>
       <c r="N38" t="n">
-        <v>115.956151107398</v>
+        <v>510.3191206998124</v>
       </c>
       <c r="O38" t="n">
         <v>1099.57457664453</v>
@@ -37563,7 +37563,7 @@
         <v>930.127326936145</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.1775731041098</v>
+        <v>622.1965488198612</v>
       </c>
       <c r="R38" t="n">
         <v>211.6844622384569</v>
@@ -37621,13 +37621,13 @@
         <v>38.29839137505344</v>
       </c>
       <c r="J39" t="n">
-        <v>32.85057049147639</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K39" t="n">
-        <v>56.14685733181776</v>
+        <v>135.5464904524409</v>
       </c>
       <c r="L39" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M39" t="n">
         <v>88.10071293313172</v>
@@ -37639,10 +37639,10 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P39" t="n">
-        <v>894.3997509942621</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q39" t="n">
-        <v>169.8184116674493</v>
+        <v>590.5852851255995</v>
       </c>
       <c r="R39" t="n">
         <v>139.9445999875613</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J41" t="n">
         <v>494.8072577890701</v>
       </c>
       <c r="K41" t="n">
-        <v>515.134038234677</v>
+        <v>396.136412935795</v>
       </c>
       <c r="L41" t="n">
         <v>102.5527878378696</v>
       </c>
       <c r="M41" t="n">
-        <v>740.499243780122</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N41" t="n">
-        <v>740.499243780122</v>
+        <v>115.9561511073978</v>
       </c>
       <c r="O41" t="n">
         <v>109.494105361392</v>
       </c>
       <c r="P41" t="n">
-        <v>93.4506856902899</v>
+        <v>740.499243780122</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.17757310410934</v>
+        <v>622.1965488198616</v>
       </c>
       <c r="R41" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384574</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>360.6872623765394</v>
       </c>
       <c r="K42" t="n">
-        <v>56.14685733181773</v>
+        <v>135.5464904524412</v>
       </c>
       <c r="L42" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518581</v>
       </c>
       <c r="M42" t="n">
         <v>88.10071293313172</v>
       </c>
       <c r="N42" t="n">
-        <v>740.4992437801221</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O42" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P42" t="n">
         <v>66.39655253042565</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255994</v>
       </c>
       <c r="R42" t="n">
-        <v>115.4784140938889</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>108.0636196629028</v>
       </c>
       <c r="K43" t="n">
-        <v>311.4013548749633</v>
+        <v>311.4013548749632</v>
       </c>
       <c r="L43" t="n">
-        <v>465.7730436593706</v>
+        <v>465.7730436593707</v>
       </c>
       <c r="M43" t="n">
         <v>509.8198271359828</v>
       </c>
       <c r="N43" t="n">
-        <v>491.3342545251362</v>
+        <v>491.334254525136</v>
       </c>
       <c r="O43" t="n">
-        <v>465.1112167349111</v>
+        <v>465.1112167349108</v>
       </c>
       <c r="P43" t="n">
         <v>386.2732500537873</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>24.64110760927993</v>
+        <v>24.64110760927992</v>
       </c>
       <c r="J44" t="n">
-        <v>55.15605834167823</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K44" t="n">
+        <v>740.4992437801221</v>
+      </c>
+      <c r="L44" t="n">
+        <v>326.2523523803968</v>
+      </c>
+      <c r="M44" t="n">
+        <v>114.1097362763894</v>
+      </c>
+      <c r="N44" t="n">
+        <v>115.9561511073978</v>
+      </c>
+      <c r="O44" t="n">
         <v>740.499243780122</v>
       </c>
-      <c r="L44" t="n">
-        <v>102.5527878378697</v>
-      </c>
-      <c r="M44" t="n">
-        <v>114.1097362763895</v>
-      </c>
-      <c r="N44" t="n">
-        <v>382.1072113802168</v>
-      </c>
-      <c r="O44" t="n">
-        <v>109.494105361392</v>
-      </c>
       <c r="P44" t="n">
-        <v>740.499243780122</v>
+        <v>93.4506856902899</v>
       </c>
       <c r="Q44" t="n">
-        <v>622.1965488198616</v>
+        <v>70.17757310410934</v>
       </c>
       <c r="R44" t="n">
-        <v>40.82177056870296</v>
+        <v>211.6844622384574</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>360.6872623765394</v>
       </c>
       <c r="K45" t="n">
-        <v>135.546490452441</v>
+        <v>135.5464904524412</v>
       </c>
       <c r="L45" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518581</v>
       </c>
       <c r="M45" t="n">
         <v>88.10071293313172</v>
@@ -38177,22 +38177,22 @@
         <v>108.0636196629028</v>
       </c>
       <c r="K46" t="n">
-        <v>311.4013548749632</v>
+        <v>311.4013548749633</v>
       </c>
       <c r="L46" t="n">
         <v>465.7730436593706</v>
       </c>
       <c r="M46" t="n">
-        <v>509.8198271359827</v>
+        <v>509.8198271359826</v>
       </c>
       <c r="N46" t="n">
-        <v>491.3342545251362</v>
+        <v>491.334254525136</v>
       </c>
       <c r="O46" t="n">
-        <v>465.1112167349113</v>
+        <v>465.1112167349111</v>
       </c>
       <c r="P46" t="n">
-        <v>386.2732500537868</v>
+        <v>386.2732500537873</v>
       </c>
       <c r="Q46" t="n">
         <v>194.3012471085813</v>
